--- a/bh3/545660407955711327_2021-07-10_10-41-04.xlsx
+++ b/bh3/545660407955711327_2021-07-10_10-41-04.xlsx
@@ -1185,7 +1185,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4067,7 +4067,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4718,7 +4718,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5382,7 +5382,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5461,7 +5461,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6070,7 +6070,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6149,7 +6149,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6224,7 +6224,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6599,7 +6599,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6962,7 +6962,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7029,7 +7029,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -7910,7 +7910,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -8127,7 +8127,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -8341,11 +8341,11 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -8938,7 +8938,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -9013,7 +9013,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -9092,7 +9092,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -9309,7 +9309,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -9534,7 +9534,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -9605,7 +9605,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -9907,7 +9907,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -9982,7 +9982,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -10132,7 +10132,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -10199,7 +10199,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -10262,7 +10262,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -10398,7 +10398,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -10469,7 +10469,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -10611,7 +10611,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -10674,7 +10674,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -10753,7 +10753,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -10907,7 +10907,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -11045,7 +11045,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -11282,7 +11282,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -11495,7 +11495,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -11562,7 +11562,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -11782,7 +11782,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -11857,7 +11857,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -11932,7 +11932,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -12007,7 +12007,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -12070,7 +12070,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -12141,7 +12141,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -12448,7 +12448,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -12519,7 +12519,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -12594,7 +12594,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -12740,7 +12740,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -12807,7 +12807,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -12870,7 +12870,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -13004,7 +13004,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -13363,7 +13363,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -13426,7 +13426,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -14006,7 +14006,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -14077,7 +14077,7 @@
         </is>
       </c>
       <c r="I186" t="n">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -14306,7 +14306,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -14661,7 +14661,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -14953,7 +14953,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -16300,7 +16300,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -16525,7 +16525,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -17485,7 +17485,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -17770,7 +17770,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -18727,7 +18727,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -19396,7 +19396,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -19625,7 +19625,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -20272,7 +20272,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -21146,7 +21146,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -22251,7 +22251,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -22409,7 +22409,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -22851,7 +22851,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -22985,7 +22985,7 @@
         </is>
       </c>
       <c r="I307" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J307" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         </is>
       </c>
       <c r="I308" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J308" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -25183,7 +25183,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -25400,7 +25400,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -25550,7 +25550,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -25629,7 +25629,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -25858,7 +25858,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -25937,7 +25937,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -26087,7 +26087,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -26163,7 +26163,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -26467,7 +26467,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -26546,7 +26546,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -26614,7 +26614,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -26685,7 +26685,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -26756,7 +26756,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -26835,7 +26835,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -26985,7 +26985,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -27056,11 +27056,11 @@
         </is>
       </c>
       <c r="I362" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -27127,7 +27127,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -27558,7 +27558,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -27625,7 +27625,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -27704,7 +27704,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -27776,7 +27776,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -27843,7 +27843,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -27918,7 +27918,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -27993,7 +27993,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -28139,7 +28139,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -28221,7 +28221,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -28300,7 +28300,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -28379,7 +28379,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -28458,7 +28458,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -28529,7 +28529,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -28683,7 +28683,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -28825,7 +28825,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -28967,7 +28967,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -29042,7 +29042,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -29124,7 +29124,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -29203,7 +29203,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -29274,7 +29274,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -29433,7 +29433,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -29591,7 +29591,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -29670,7 +29670,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -29737,7 +29737,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -29970,7 +29970,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -30116,7 +30116,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -30259,7 +30259,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -30334,7 +30334,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -30401,7 +30401,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -30551,7 +30551,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -30626,7 +30626,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -30705,7 +30705,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -30835,11 +30835,11 @@
         </is>
       </c>
       <c r="I413" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -30914,7 +30914,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -30998,7 +30998,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -31065,7 +31065,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -31219,7 +31219,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -31424,7 +31424,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -31945,7 +31945,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -32012,7 +32012,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -32079,7 +32079,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -32146,11 +32146,11 @@
         </is>
       </c>
       <c r="I431" t="n">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -32390,7 +32390,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -32461,7 +32461,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -32611,7 +32611,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -32678,7 +32678,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -32820,7 +32820,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -32950,7 +32950,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -33096,7 +33096,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -33171,7 +33171,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -33246,7 +33246,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -33328,7 +33328,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -33407,7 +33407,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -33486,7 +33486,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -33565,7 +33565,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -33636,7 +33636,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -33707,7 +33707,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -33924,7 +33924,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -34141,11 +34141,11 @@
         </is>
       </c>
       <c r="I458" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -34287,7 +34287,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -34417,11 +34417,11 @@
         </is>
       </c>
       <c r="I462" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -34800,7 +34800,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -35384,7 +35384,7 @@
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -35609,7 +35609,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -35685,7 +35685,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -35756,7 +35756,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -35902,7 +35902,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -35977,7 +35977,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -36052,7 +36052,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -36119,7 +36119,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -36199,7 +36199,7 @@
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -36274,7 +36274,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -36720,7 +36720,7 @@
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -37158,7 +37158,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -37624,7 +37624,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -37766,7 +37766,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -37845,7 +37845,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -37991,7 +37991,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -38070,7 +38070,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -38295,7 +38295,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -38954,7 +38954,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -39021,7 +39021,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -39096,7 +39096,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -39175,7 +39175,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -39246,7 +39246,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -39309,7 +39309,7 @@
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -39392,7 +39392,7 @@
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
@@ -39471,7 +39471,7 @@
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -39546,7 +39546,7 @@
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -39617,7 +39617,7 @@
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
@@ -39696,7 +39696,7 @@
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -39775,7 +39775,7 @@
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K534" t="inlineStr">
@@ -39846,7 +39846,7 @@
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -39921,7 +39921,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
@@ -40063,7 +40063,7 @@
         </is>
       </c>
       <c r="I538" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J538" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
@@ -40217,7 +40217,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
@@ -40296,7 +40296,7 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -40367,7 +40367,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -40434,7 +40434,7 @@
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K543" t="inlineStr">
@@ -40497,11 +40497,11 @@
         </is>
       </c>
       <c r="I544" t="n">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">

--- a/bh3/545660407955711327_2021-07-10_10-41-04.xlsx
+++ b/bh3/545660407955711327_2021-07-10_10-41-04.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -567,10 +583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:33:33</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44389.60663194444</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -646,10 +660,8 @@
           <t>4878478225</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-11 21:40:10</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44388.90289351852</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -725,10 +737,8 @@
           <t>4878478225</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-11 21:38:57</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44388.90204861111</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -788,10 +798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:35:57</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44388.81663194444</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -859,10 +867,8 @@
           <t>4884105608</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-11 15:48:50</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44388.65891203703</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -938,10 +944,8 @@
           <t>4884105608</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-11 15:07:08</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44388.6299537037</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1017,10 +1021,8 @@
           <t>4884105608</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-11 13:53:26</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44388.57877314815</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1096,10 +1098,8 @@
           <t>4884105608</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-11 01:34:33</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44388.06565972222</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1175,10 +1175,8 @@
           <t>4883994279</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-11 01:08:57</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44388.04788194445</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1254,10 +1252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:31:09</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44387.97996527778</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1325,10 +1321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:06:42</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44387.83798611111</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1404,10 +1398,8 @@
           <t>4881800779</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:50:13</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44387.82653935185</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1471,10 +1463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:15:03</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44387.80211805556</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1546,10 +1536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:46:35</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44387.78234953704</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1617,10 +1605,8 @@
           <t>4880716614</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:03:50</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44387.75266203703</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1697,10 +1683,8 @@
           <t>4880888527</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:35:46</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44387.7331712963</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1782,10 +1766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:27:40</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44387.72754629629</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1849,10 +1831,8 @@
           <t>4880716614</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:07:46</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44387.71372685185</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1916,10 +1896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:49:56</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44387.70134259259</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1995,10 +1973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:29:17</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44387.68700231481</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2070,10 +2046,8 @@
           <t>4878834857</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:28:27</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44387.68642361111</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2142,10 +2116,8 @@
           <t>4880017906</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:19:24</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44387.63847222222</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2209,10 +2181,8 @@
           <t>4878781245</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:02:42</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44387.626875</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2284,10 +2254,8 @@
           <t>4878651866</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:01:09</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44387.62579861111</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2359,10 +2327,8 @@
           <t>4880017906</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:57:22</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44387.6231712963</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2434,10 +2400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:55:07</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44387.6216087963</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2509,10 +2473,8 @@
           <t>4879997312</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:53:39</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44387.62059027778</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2584,10 +2546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:35:12</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44387.60777777778</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2655,10 +2615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:21:32</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44387.59828703704</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2727,10 +2685,8 @@
           <t>4878489548</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:08:12</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44387.58902777778</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2809,10 +2765,8 @@
           <t>4879756478</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:07:57</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44387.58885416666</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2880,10 +2834,8 @@
           <t>4879748792</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:06:58</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44387.58817129629</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2951,10 +2903,8 @@
           <t>4879689276</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:56:38</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44387.58099537037</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3018,10 +2968,8 @@
           <t>4879688679</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:56:19</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44387.58077546296</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3089,10 +3037,8 @@
           <t>4879687298</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:55:37</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44387.58028935185</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3156,10 +3102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:53:42</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44387.57895833333</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3223,10 +3167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:48:06</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44387.57506944444</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3294,10 +3236,8 @@
           <t>4879641535</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:47:35</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44387.57471064815</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3365,10 +3305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:40:52</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44387.5700462963</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3436,10 +3374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:39:58</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44387.5694212963</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3515,10 +3451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:39:40</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44387.56921296296</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3586,10 +3520,8 @@
           <t>4878641801</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:32:55</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44387.56452546296</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3665,10 +3597,8 @@
           <t>4879542396</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:30:56</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44387.56314814815</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3744,10 +3674,8 @@
           <t>4878992048</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:23:49</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44387.55820601852</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3823,10 +3751,8 @@
           <t>4879326446</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:22:40</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44387.55740740741</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3902,10 +3828,8 @@
           <t>4879465574</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:18:19</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44387.55438657408</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3982,10 +3906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:13:07</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44387.55077546297</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4057,10 +3979,8 @@
           <t>4879417466</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:10:28</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44387.54893518519</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4132,10 +4052,8 @@
           <t>4879375075</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:03:18</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44387.54395833334</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4203,10 +4121,8 @@
           <t>4879357958</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:01:52</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44387.54296296297</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4266,10 +4182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:00:25</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44387.54195601852</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4337,10 +4251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:59:36</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44387.54138888889</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4404,10 +4316,8 @@
           <t>4879332483</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:57:16</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44387.53976851852</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4483,10 +4393,8 @@
           <t>4879326446</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:56:42</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44387.539375</v>
       </c>
       <c r="I55" t="n">
         <v>3</v>
@@ -4562,10 +4470,8 @@
           <t>4879261506</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:46:14</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44387.53210648148</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4637,10 +4543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:39:05</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44387.5271412037</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4708,10 +4612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:38:18</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44387.52659722222</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4787,10 +4689,8 @@
           <t>4879188638</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:36:24</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44387.52527777778</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4850,10 +4750,8 @@
           <t>4879192141</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:35:54</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44387.52493055556</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4917,10 +4815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:33:57</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44387.52357638889</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4996,10 +4892,8 @@
           <t>4879029047</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:29:55</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44387.52077546297</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5075,10 +4969,8 @@
           <t>4879142918</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:28:56</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44387.52009259259</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -5154,10 +5046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:25:59</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44387.51804398148</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5222,10 +5112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:25:14</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44387.51752314815</v>
       </c>
       <c r="I65" t="n">
         <v>6</v>
@@ -5293,10 +5181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:25:03</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44387.51739583333</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5372,10 +5258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:24:59</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44387.51734953704</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5451,10 +5335,8 @@
           <t>4879108553</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:24:16</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44387.51685185185</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5530,10 +5412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:22:37</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44387.51570601852</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5609,10 +5489,8 @@
           <t>4879099101</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:22:25</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44387.51556712963</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5681,10 +5559,8 @@
           <t>4878585244</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:22:17</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44387.51547453704</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -5760,10 +5636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:19:36</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44387.51361111111</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5831,10 +5705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:19:30</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44387.51354166667</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5906,10 +5778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:19:04</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44387.51324074074</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5981,10 +5851,8 @@
           <t>4879069597</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:17:49</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44387.51237268518</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -6060,10 +5928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:17:02</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44387.5118287037</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6139,10 +6005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:15:59</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44387.51109953703</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6214,10 +6078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:13:43</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44387.50952546296</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6289,10 +6151,8 @@
           <t>4879029047</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:13:00</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44387.50902777778</v>
       </c>
       <c r="I79" t="n">
         <v>2</v>
@@ -6368,10 +6228,8 @@
           <t>4878781245</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:12:54</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44387.50895833333</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6443,10 +6301,8 @@
           <t>4879035611</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:11:56</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44387.50828703704</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6514,10 +6370,8 @@
           <t>4879012577</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:58</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44387.5069212963</v>
       </c>
       <c r="I82" t="n">
         <v>5</v>
@@ -6589,10 +6443,8 @@
           <t>4879003964</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:08:38</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44387.50599537037</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6668,10 +6520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:08:17</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44387.50575231481</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6739,10 +6589,8 @@
           <t>4878992048</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:06:22</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44387.5044212963</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6806,10 +6654,8 @@
           <t>4878489548</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:06:12</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44387.50430555556</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6881,10 +6727,8 @@
           <t>4878478225</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:05:42</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44387.50395833333</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6952,10 +6796,8 @@
           <t>4878985729</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:05:00</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44387.50347222222</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7019,10 +6861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:04:11</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44387.5029050926</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7095,10 +6935,8 @@
           <t>4878970817</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:02:55</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44387.50202546296</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7174,10 +7012,8 @@
           <t>4878962872</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:02:44</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44387.50189814815</v>
       </c>
       <c r="I91" t="n">
         <v>8</v>
@@ -7237,10 +7073,8 @@
           <t>4878704917</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:02:34</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44387.50178240741</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7300,10 +7134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:02:25</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44387.50167824074</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7379,10 +7211,8 @@
           <t>4878960355</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:01:51</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44387.50128472222</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7442,10 +7272,8 @@
           <t>4878948598</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:01:16</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44387.50087962963</v>
       </c>
       <c r="I95" t="n">
         <v>6</v>
@@ -7505,10 +7333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:00:52</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44387.50060185185</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7584,10 +7410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:00:37</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44387.50042824074</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7663,10 +7487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:59:32</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44387.49967592592</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7742,10 +7564,8 @@
           <t>4878938960</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:59:30</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44387.49965277778</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7821,10 +7641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:59:23</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44387.49957175926</v>
       </c>
       <c r="I100" t="n">
         <v>3</v>
@@ -7900,10 +7718,8 @@
           <t>4878938323</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:59:13</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44387.49945601852</v>
       </c>
       <c r="I101" t="n">
         <v>4</v>
@@ -7971,10 +7787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:58:56</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44387.49925925926</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -8038,10 +7852,8 @@
           <t>4878535785</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:58:55</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44387.49924768518</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8117,10 +7929,8 @@
           <t>4878478225</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:57:58</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44387.49858796296</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8185,10 +7995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:56:42</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44387.49770833334</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8264,10 +8072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:56:24</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44387.4975</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8335,10 +8141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:55:58</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44387.49719907407</v>
       </c>
       <c r="I107" t="n">
         <v>53</v>
@@ -8406,10 +8210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:55:54</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44387.49715277777</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8477,10 +8279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:55:48</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44387.49708333334</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8548,10 +8348,8 @@
           <t>4878915765</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:55:29</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44387.49686342593</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8623,10 +8421,8 @@
           <t>4878912908</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:54:59</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44387.4965162037</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8691,10 +8487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:54:50</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44387.49641203704</v>
       </c>
       <c r="I112" t="n">
         <v>3</v>
@@ -8770,10 +8564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:54:23</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44387.49609953703</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8849,10 +8641,8 @@
           <t>4878910973</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:54:05</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44387.4958912037</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8928,10 +8718,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:53:49</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44387.49570601852</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -9003,10 +8791,8 @@
           <t>4878834857</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:53:41</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44387.49561342593</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -9082,10 +8868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:53:33</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44387.49552083333</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9153,10 +8937,8 @@
           <t>4878834857</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:52:41</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44387.49491898148</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9220,10 +9002,8 @@
           <t>4878651866</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:52:38</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44387.49488425926</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9299,10 +9079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:51:10</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44387.49386574074</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -9378,10 +9156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:50:37</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44387.49348379629</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9457,10 +9233,8 @@
           <t>4878827861</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:50:01</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44387.49306712963</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9524,10 +9298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:49:43</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44387.49285879629</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9595,10 +9367,8 @@
           <t>4878692411</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:48:54</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44387.49229166667</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9666,10 +9436,8 @@
           <t>4878641801</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:47:34</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44387.49136574074</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9745,10 +9513,8 @@
           <t>4878834857</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:47:23</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44387.49123842592</v>
       </c>
       <c r="I126" t="n">
         <v>4</v>
@@ -9817,10 +9583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:46:31</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44387.49063657408</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9897,10 +9661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:46:06</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44387.49034722222</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9972,10 +9734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:45:55</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44387.49021990741</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -10043,10 +9803,8 @@
           <t>4878820592</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:45:33</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44387.48996527777</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10122,10 +9880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:44:18</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44387.48909722222</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10189,10 +9945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:44:08</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44387.48898148148</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10252,10 +10006,8 @@
           <t>4878834966</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:43:54</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44387.48881944444</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10319,10 +10071,8 @@
           <t>4878834857</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:43:51</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44387.48878472222</v>
       </c>
       <c r="I134" t="n">
         <v>2</v>
@@ -10388,10 +10138,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:42:26</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44387.48780092593</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10459,10 +10207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:42:22</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44387.48775462963</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10530,10 +10276,8 @@
           <t>4878820592</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:42:04</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44387.4875462963</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10601,10 +10345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:41:48</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44387.48736111111</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10664,10 +10406,8 @@
           <t>4878830554</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:41:45</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44387.48732638889</v>
       </c>
       <c r="I139" t="n">
         <v>61</v>
@@ -10743,10 +10483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:41:15</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44387.48697916666</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10818,10 +10556,8 @@
           <t>4878827861</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:41:15</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44387.48697916666</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -10897,10 +10633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:41:11</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44387.48693287037</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10964,10 +10698,8 @@
           <t>4878585244</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:40:53</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44387.48672453704</v>
       </c>
       <c r="I143" t="n">
         <v>2</v>
@@ -11035,10 +10767,8 @@
           <t>4878822267</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:40:38</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44387.48655092593</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11114,10 +10844,8 @@
           <t>4878820592</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:39:51</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44387.48600694445</v>
       </c>
       <c r="I145" t="n">
         <v>4</v>
@@ -11193,10 +10921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:39:48</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44387.48597222222</v>
       </c>
       <c r="I146" t="n">
         <v>2</v>
@@ -11272,10 +10998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:38:28</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44387.48504629629</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11339,10 +11063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:38:09</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44387.48482638889</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11410,10 +11132,8 @@
           <t>4878806248</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:37:53</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44387.4846412037</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11485,10 +11205,8 @@
           <t>4878641801</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:37:43</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44387.48452546296</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11552,10 +11270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:37:40</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44387.48449074074</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11623,10 +11339,8 @@
           <t>4878799379</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:37:06</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44387.48409722222</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11690,10 +11404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:36:39</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44387.48378472222</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11772,10 +11484,8 @@
           <t>4878797186</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:36:08</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44387.48342592592</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11847,10 +11557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:35:39</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44387.48309027778</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11922,10 +11630,8 @@
           <t>4878706288</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:35:27</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44387.48295138889</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11997,10 +11703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:35:08</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44387.48273148148</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12060,10 +11764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:35:06</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44387.48270833334</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12131,10 +11833,8 @@
           <t>4878784346</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:34:49</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44387.48251157408</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12206,10 +11906,8 @@
           <t>4878786132</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:34:48</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44387.4825</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12284,10 +11982,8 @@
           <t>4878478225</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:34:07</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44387.48202546296</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -12359,10 +12055,8 @@
           <t>4878781245</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:33:26</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44387.48155092593</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12438,10 +12132,8 @@
           <t>4878525957</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:33:23</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44387.4815162037</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12509,10 +12201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:33:19</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44387.4814699074</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12584,10 +12274,8 @@
           <t>4878772883</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:33:12</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44387.48138888889</v>
       </c>
       <c r="I165" t="n">
         <v>2</v>
@@ -12655,10 +12343,8 @@
           <t>4878495682</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:33:04</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44387.4812962963</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12730,10 +12416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:32:25</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44387.4808449074</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12797,10 +12481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:32:12</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44387.48069444444</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12860,10 +12542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:31:59</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44387.48054398148</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12927,10 +12607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:31:00</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44387.47986111111</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12994,10 +12672,8 @@
           <t>4878757652</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:30:41</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44387.4796412037</v>
       </c>
       <c r="I171" t="n">
         <v>2</v>
@@ -13069,10 +12745,8 @@
           <t>4878478225</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:30:32</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44387.47953703703</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -13140,10 +12814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:30:14</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44387.4793287037</v>
       </c>
       <c r="I173" t="n">
         <v>2</v>
@@ -13211,10 +12883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:29:50</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44387.47905092593</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13278,10 +12948,8 @@
           <t>4878749826</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:29:42</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44387.47895833333</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13353,10 +13021,8 @@
           <t>4878706288</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:29:09</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44387.47857638889</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13416,10 +13082,8 @@
           <t>4878748026</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:28:47</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44387.47832175926</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13491,10 +13155,8 @@
           <t>4878581963</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:28:42</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44387.47826388889</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13570,10 +13232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:28:32</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44387.47814814815</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13645,10 +13305,8 @@
           <t>4878478225</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:27:54</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44387.47770833333</v>
       </c>
       <c r="I180" t="n">
         <v>2</v>
@@ -13712,10 +13370,8 @@
           <t>4878706288</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:27:09</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44387.4771875</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13787,10 +13443,8 @@
           <t>4878733531</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:26:25</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44387.47667824074</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13854,10 +13508,8 @@
           <t>4878704917</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:26:09</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44387.47649305555</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13921,10 +13573,8 @@
           <t>4878545179</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:26:01</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44387.47640046296</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -13996,10 +13646,8 @@
           <t>4878727066</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:25:22</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44387.47594907408</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -14071,10 +13719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:24:20</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44387.47523148148</v>
       </c>
       <c r="I186" t="n">
         <v>598</v>
@@ -14150,10 +13796,8 @@
           <t>4878535785</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:24:01</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44387.47501157408</v>
       </c>
       <c r="I187" t="n">
         <v>3</v>
@@ -14225,10 +13869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:23:33</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44387.4746875</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -14296,10 +13938,8 @@
           <t>4878713031</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:23:19</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44387.47452546296</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14371,10 +14011,8 @@
           <t>4878512038</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:23:00</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44387.47430555556</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14434,10 +14072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:22:41</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44387.47408564815</v>
       </c>
       <c r="I191" t="n">
         <v>77</v>
@@ -14501,10 +14137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:22:41</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44387.47408564815</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14576,10 +14210,8 @@
           <t>4878711782</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:22:40</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44387.47407407407</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14651,10 +14283,8 @@
           <t>4878708048</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:22:37</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44387.47403935185</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14726,10 +14356,8 @@
           <t>4878706288</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:21:46</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44387.47344907407</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14801,10 +14429,8 @@
           <t>4878704917</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:21:43</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44387.47341435185</v>
       </c>
       <c r="I196" t="n">
         <v>3</v>
@@ -14872,10 +14498,8 @@
           <t>4878704397</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:21:26</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44387.47321759259</v>
       </c>
       <c r="I197" t="n">
         <v>2</v>
@@ -14943,10 +14567,8 @@
           <t>4878697709</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:20:42</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44387.47270833333</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15022,10 +14644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:20:25</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44387.47251157407</v>
       </c>
       <c r="I199" t="n">
         <v>2</v>
@@ -15089,10 +14709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:20:23</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44387.47248842593</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15168,10 +14786,8 @@
           <t>4878692411</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:19:53</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44387.4721412037</v>
       </c>
       <c r="I201" t="n">
         <v>2</v>
@@ -15247,10 +14863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:19:05</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44387.47158564815</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15318,10 +14932,8 @@
           <t>4878684370</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:18:54</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44387.47145833333</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15389,10 +15001,8 @@
           <t>4878689305</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:18:54</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44387.47145833333</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15464,10 +15074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:18:17</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44387.47103009259</v>
       </c>
       <c r="I205" t="n">
         <v>5</v>
@@ -15544,10 +15152,8 @@
           <t>4878651866</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:18:00</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44387.47083333333</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -15615,10 +15221,8 @@
           <t>4878567908</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:17:48</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44387.47069444445</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15690,10 +15294,8 @@
           <t>4878667860</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:17:40</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44387.47060185186</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
@@ -15765,10 +15367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:17:11</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44387.4702662037</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15844,10 +15444,8 @@
           <t>4878685512</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:17:00</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44387.47013888889</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15915,10 +15513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:16:35</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44387.46984953704</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15986,10 +15582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:15:59</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44387.46943287037</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16068,10 +15662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:15:53</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44387.46936342592</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16143,10 +15735,8 @@
           <t>4878667860</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:15:22</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44387.46900462963</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16222,10 +15812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:15:18</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44387.46895833333</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16290,10 +15878,8 @@
           <t>4878671717</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:15:06</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44387.46881944445</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16365,10 +15951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:14:17</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44387.46825231481</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16444,10 +16028,8 @@
           <t>4878665459</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:14:14</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44387.46821759259</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16515,10 +16097,8 @@
           <t>4878659122</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:13:48</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44387.46791666667</v>
       </c>
       <c r="I219" t="n">
         <v>2</v>
@@ -16590,10 +16170,8 @@
           <t>4878649494</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:13:44</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44387.46787037037</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16669,10 +16247,8 @@
           <t>4878653922</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:13:31</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44387.46771990741</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16741,10 +16317,8 @@
           <t>4878651866</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:13:30</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44387.46770833333</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16816,10 +16390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:13:17</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44387.46755787037</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16887,10 +16459,8 @@
           <t>4878651866</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:12:36</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44387.46708333334</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
@@ -16958,10 +16528,8 @@
           <t>4878656290</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:12:24</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44387.46694444444</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -17029,10 +16597,8 @@
           <t>4878641801</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:12:12</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44387.46680555555</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -17104,10 +16670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:12:09</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44387.46677083334</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17183,10 +16747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:11:33</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44387.46635416667</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -17250,10 +16812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:11:32</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44387.46634259259</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17325,10 +16885,8 @@
           <t>4878645216</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:11:31</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44387.46633101852</v>
       </c>
       <c r="I230" t="n">
         <v>1</v>
@@ -17404,10 +16962,8 @@
           <t>4878634879</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:11:20</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44387.46620370371</v>
       </c>
       <c r="I231" t="n">
         <v>2</v>
@@ -17475,10 +17031,8 @@
           <t>4878644051</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:11:15</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44387.46614583334</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17551,10 +17105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:10:51</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44387.46586805556</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -17622,10 +17174,8 @@
           <t>4878473588</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:10:51</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44387.46586805556</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17693,10 +17243,8 @@
           <t>4878640982</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:10:30</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44387.465625</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17760,10 +17308,8 @@
           <t>4878633246</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:10:24</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44387.46555555556</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17831,10 +17377,8 @@
           <t>4878597746</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:10:12</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44387.46541666667</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17906,10 +17450,8 @@
           <t>4878641801</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:10:10</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44387.46539351852</v>
       </c>
       <c r="I238" t="n">
         <v>4</v>
@@ -17981,10 +17523,8 @@
           <t>4878640982</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:09:45</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44387.46510416667</v>
       </c>
       <c r="I239" t="n">
         <v>2</v>
@@ -18060,10 +17600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:09:43</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44387.46508101852</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18140,10 +17678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:09:19</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44387.46480324074</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18207,10 +17743,8 @@
           <t>4878630973</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:09:09</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44387.4646875</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18274,10 +17808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:09:00</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44387.46458333333</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18353,10 +17885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:08:47</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44387.46443287037</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18425,10 +17955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:08:13</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44387.46403935185</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18496,10 +18024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:07:47</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44387.46373842593</v>
       </c>
       <c r="I246" t="n">
         <v>2</v>
@@ -18575,10 +18101,8 @@
           <t>4878627040</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:07:47</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44387.46373842593</v>
       </c>
       <c r="I247" t="n">
         <v>14</v>
@@ -18650,10 +18174,8 @@
           <t>4878473588</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:07:44</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44387.4637037037</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18717,10 +18239,8 @@
           <t>4878621624</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:07:19</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44387.46341435185</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
@@ -18796,10 +18316,8 @@
           <t>4878625923</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:07:14</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44387.46335648148</v>
       </c>
       <c r="I250" t="n">
         <v>3</v>
@@ -18863,10 +18381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:06:41</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44387.46297453704</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18939,10 +18455,8 @@
           <t>4878478225</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:06:35</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44387.46290509259</v>
       </c>
       <c r="I252" t="n">
         <v>1</v>
@@ -19014,10 +18528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:06:21</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44387.46274305556</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -19089,10 +18601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:05:39</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44387.46225694445</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19161,10 +18671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:05:38</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44387.46224537037</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19240,10 +18748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:05:35</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44387.46221064815</v>
       </c>
       <c r="I256" t="n">
         <v>4</v>
@@ -19311,10 +18817,8 @@
           <t>4878575484</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:05:34</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44387.46219907407</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19386,10 +18890,8 @@
           <t>4878604141</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:05:25</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44387.46209490741</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19465,10 +18967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:05:17</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44387.46200231482</v>
       </c>
       <c r="I259" t="n">
         <v>20</v>
@@ -19540,10 +19040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:05:07</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44387.46188657408</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19615,10 +19113,8 @@
           <t>4878610910</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:04:49</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44387.46167824074</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19694,10 +19190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:04:46</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44387.46164351852</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19769,10 +19263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:04:45</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44387.46163194445</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19844,10 +19336,8 @@
           <t>4878524452</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:04:38</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44387.46155092592</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19915,10 +19405,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:04:21</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44387.46135416667</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19982,10 +19470,8 @@
           <t>4878601553</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:04:02</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44387.46113425926</v>
       </c>
       <c r="I266" t="n">
         <v>1</v>
@@ -20049,10 +19535,8 @@
           <t>4878600933</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:03:43</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44387.46091435185</v>
       </c>
       <c r="I267" t="n">
         <v>4</v>
@@ -20116,10 +19600,8 @@
           <t>4878600790</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:03:39</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44387.46086805555</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -20183,10 +19665,8 @@
           <t>4878598347</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:03:36</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44387.46083333333</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20262,10 +19742,8 @@
           <t>4878593942</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:03:26</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44387.46071759259</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20333,10 +19811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:03:24</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44387.46069444445</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -20412,10 +19888,8 @@
           <t>4878597746</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:03:19</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44387.46063657408</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20484,10 +19958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:03:04</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44387.46046296296</v>
       </c>
       <c r="I273" t="n">
         <v>1</v>
@@ -20556,10 +20028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:02:23</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44387.45998842592</v>
       </c>
       <c r="I274" t="n">
         <v>1</v>
@@ -20623,10 +20093,8 @@
           <t>4878591704</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:02:21</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44387.45996527778</v>
       </c>
       <c r="I275" t="n">
         <v>1</v>
@@ -20694,10 +20162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:02:18</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44387.45993055555</v>
       </c>
       <c r="I276" t="n">
         <v>1</v>
@@ -20765,10 +20231,8 @@
           <t>4878584857</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:02:02</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44387.45974537037</v>
       </c>
       <c r="I277" t="n">
         <v>5</v>
@@ -20832,10 +20296,8 @@
           <t>4878584289</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:01:46</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44387.45956018518</v>
       </c>
       <c r="I278" t="n">
         <v>3</v>
@@ -20911,10 +20373,8 @@
           <t>4878512038</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:01:39</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44387.45947916667</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20990,10 +20450,8 @@
           <t>4878583759</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:01:33</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44387.45940972222</v>
       </c>
       <c r="I280" t="n">
         <v>16</v>
@@ -21061,10 +20519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:01:31</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44387.45938657408</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21136,10 +20592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:01:07</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44387.4591087963</v>
       </c>
       <c r="I282" t="n">
         <v>3</v>
@@ -21203,10 +20657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:01:05</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44387.45908564814</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21274,10 +20726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:01:01</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44387.45903935185</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21345,10 +20795,8 @@
           <t>4878585244</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:00:55</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44387.45896990741</v>
       </c>
       <c r="I285" t="n">
         <v>2</v>
@@ -21420,10 +20868,8 @@
           <t>4878581963</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:00:50</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44387.45891203704</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21495,10 +20941,8 @@
           <t>4878581931</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:00:49</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44387.45890046296</v>
       </c>
       <c r="I287" t="n">
         <v>1</v>
@@ -21574,10 +21018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:00:42</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44387.45881944444</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21645,10 +21087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:00:28</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44387.45865740741</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21724,10 +21164,8 @@
           <t>4878580808</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:00:23</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44387.45859953704</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21803,10 +21241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:00:21</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44387.45857638889</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21874,10 +21310,8 @@
           <t>4878569116</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:00:17</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44387.45853009259</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21953,10 +21387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:00:07</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44387.45841435185</v>
       </c>
       <c r="I293" t="n">
         <v>1</v>
@@ -22024,10 +21456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:00:05</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44387.45839120371</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -22095,10 +21525,8 @@
           <t>4878495682</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:59:57</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44387.45829861111</v>
       </c>
       <c r="I295" t="n">
         <v>1</v>
@@ -22162,10 +21590,8 @@
           <t>4878569599</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:59:54</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44387.45826388889</v>
       </c>
       <c r="I296" t="n">
         <v>6</v>
@@ -22241,10 +21667,8 @@
           <t>4878569575</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:59:53</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44387.45825231481</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22320,10 +21744,8 @@
           <t>4878508132</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:59:46</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44387.4581712963</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22399,10 +21821,8 @@
           <t>4878569321</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:59:45</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44387.45815972222</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22478,10 +21898,8 @@
           <t>4878569116</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:59:39</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44387.45809027777</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22557,10 +21975,8 @@
           <t>4878569017</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:59:36</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44387.45805555556</v>
       </c>
       <c r="I301" t="n">
         <v>1</v>
@@ -22624,10 +22040,8 @@
           <t>4878575484</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:59:35</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44387.45804398148</v>
       </c>
       <c r="I302" t="n">
         <v>5</v>
@@ -22699,10 +22113,8 @@
           <t>4878567908</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:59:04</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44387.45768518518</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22770,10 +22182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:58:56</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44387.45759259259</v>
       </c>
       <c r="I304" t="n">
         <v>2</v>
@@ -22841,10 +22251,8 @@
           <t>4878570971</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:58:51</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44387.45753472222</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22904,10 +22312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:58:45</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44387.45746527778</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22979,10 +22385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:58:39</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44387.45739583333</v>
       </c>
       <c r="I307" t="n">
         <v>226</v>
@@ -23059,10 +22463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:58:38</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44387.45738425926</v>
       </c>
       <c r="I308" t="n">
         <v>229</v>
@@ -23130,10 +22532,8 @@
           <t>4878566979</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:58:35</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44387.45734953704</v>
       </c>
       <c r="I309" t="n">
         <v>11</v>
@@ -23209,10 +22609,8 @@
           <t>4878538745</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:58:30</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44387.45729166667</v>
       </c>
       <c r="I310" t="n">
         <v>15</v>
@@ -23284,10 +22682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:58:25</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44387.4572337963</v>
       </c>
       <c r="I311" t="n">
         <v>1</v>
@@ -23364,10 +22760,8 @@
           <t>4878508132</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:58:23</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44387.45721064815</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23443,10 +22837,8 @@
           <t>4878555152</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:58:22</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44387.45719907407</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23518,10 +22910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:58:17</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44387.4571412037</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23589,10 +22979,8 @@
           <t>4878566337</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:58:16</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44387.45712962963</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23652,10 +23040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:58:11</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44387.45707175926</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23723,10 +23109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:58:07</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44387.45702546297</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23786,10 +23170,8 @@
           <t>4878562593</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:58:04</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44387.45699074074</v>
       </c>
       <c r="I318" t="n">
         <v>6</v>
@@ -23853,10 +23235,8 @@
           <t>4878513135</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:57:57</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44387.45690972222</v>
       </c>
       <c r="I319" t="n">
         <v>2</v>
@@ -23929,10 +23309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:57:55</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44387.45688657407</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -24000,10 +23378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:57:31</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44387.4566087963</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -24079,10 +23455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:57:27</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44387.4565625</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24158,10 +23532,8 @@
           <t>4878558269</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:57:23</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44387.4565162037</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24221,10 +23593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:57:19</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44387.45646990741</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24292,10 +23662,8 @@
           <t>4878558021</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:57:15</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44387.45642361111</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24371,10 +23739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:57:12</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44387.45638888889</v>
       </c>
       <c r="I326" t="n">
         <v>1</v>
@@ -24446,10 +23812,8 @@
           <t>4878557684</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:57:05</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44387.45630787037</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24525,10 +23889,8 @@
           <t>4878560622</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:57:01</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44387.45626157407</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24597,10 +23959,8 @@
           <t>4878560518</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:56:58</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44387.45622685185</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -24668,10 +24028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:56:53</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44387.45616898148</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24735,10 +24093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:56:46</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44387.45608796296</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24810,10 +24166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:56:39</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44387.45600694444</v>
       </c>
       <c r="I332" t="n">
         <v>4</v>
@@ -24885,10 +24239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:56:37</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44387.4559837963</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24960,10 +24312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:56:37</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44387.4559837963</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -25039,10 +24389,8 @@
           <t>4878553085</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:56:37</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44387.4559837963</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25106,10 +24454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:56:35</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44387.45596064815</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25173,10 +24519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:56:32</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44387.45592592593</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25240,10 +24584,8 @@
           <t>4878552389</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:56:16</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44387.45574074074</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25319,10 +24661,8 @@
           <t>4878548717</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:56:00</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44387.45555555556</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25390,10 +24730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:55:55</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44387.45549768519</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25469,10 +24807,8 @@
           <t>4878548547</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:55:54</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44387.45548611111</v>
       </c>
       <c r="I341" t="n">
         <v>1</v>
@@ -25540,10 +24876,8 @@
           <t>4878555152</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:55:39</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44387.4553125</v>
       </c>
       <c r="I342" t="n">
         <v>17</v>
@@ -25619,10 +24953,8 @@
           <t>4878535785</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:55:32</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44387.45523148148</v>
       </c>
       <c r="I343" t="n">
         <v>3</v>
@@ -25698,10 +25030,8 @@
           <t>4878550865</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:55:28</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44387.45518518519</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25773,10 +25103,8 @@
           <t>4878547703</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:55:26</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44387.45516203704</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25848,10 +25176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:55:21</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44387.45510416666</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25927,10 +25253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:55:03</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44387.45489583333</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -26006,10 +25330,8 @@
           <t>4878539981</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:55:01</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44387.45487268519</v>
       </c>
       <c r="I348" t="n">
         <v>4</v>
@@ -26077,10 +25399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:54:40</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44387.45462962963</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -26153,10 +25473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:54:30</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44387.45451388889</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26228,10 +25546,8 @@
           <t>4878538745</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:54:24</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44387.45444444445</v>
       </c>
       <c r="I351" t="n">
         <v>40</v>
@@ -26307,10 +25623,8 @@
           <t>4878512038</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:54:13</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44387.45431712963</v>
       </c>
       <c r="I352" t="n">
         <v>3</v>
@@ -26386,10 +25700,8 @@
           <t>4878545179</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:54:06</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44387.45423611111</v>
       </c>
       <c r="I353" t="n">
         <v>3</v>
@@ -26457,10 +25769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:53:28</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44387.45379629629</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26536,10 +25846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:53:19</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44387.45369212963</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26604,10 +25912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:53:15</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44387.45364583333</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26675,10 +25981,8 @@
           <t>4878535785</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:52:57</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44387.4534375</v>
       </c>
       <c r="I357" t="n">
         <v>4</v>
@@ -26746,10 +26050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:52:56</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44387.45342592592</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26825,10 +26127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:52:39</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44387.45322916667</v>
       </c>
       <c r="I359" t="n">
         <v>35</v>
@@ -26900,10 +26200,8 @@
           <t>4878524452</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:52:30</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44387.453125</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26975,10 +26273,8 @@
           <t>4878512038</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:52:27</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44387.45309027778</v>
       </c>
       <c r="I361" t="n">
         <v>34</v>
@@ -27050,10 +26346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:52:22</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44387.45303240741</v>
       </c>
       <c r="I362" t="n">
         <v>192</v>
@@ -27117,10 +26411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:51:35</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44387.45248842592</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -27192,10 +26484,8 @@
           <t>4878530136</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:51:24</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44387.45236111111</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -27259,10 +26549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:51:23</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44387.45234953704</v>
       </c>
       <c r="I365" t="n">
         <v>8</v>
@@ -27326,10 +26614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:51:22</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44387.45233796296</v>
       </c>
       <c r="I366" t="n">
         <v>58</v>
@@ -27405,10 +26691,8 @@
           <t>4878527162</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:51:09</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44387.4521875</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27473,10 +26757,8 @@
           <t>4878519563</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:51:06</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44387.45215277778</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27548,10 +26830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:51:04</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44387.45212962963</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27615,10 +26895,8 @@
           <t>4878513135</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:51:00</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44387.45208333333</v>
       </c>
       <c r="I370" t="n">
         <v>5</v>
@@ -27694,10 +26972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:50:40</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44387.45185185185</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27766,10 +27042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:50:37</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44387.45181712963</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27833,10 +27107,8 @@
           <t>4878508132</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:50:32</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44387.45175925926</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27908,10 +27180,8 @@
           <t>4878525957</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:50:31</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44387.45174768518</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27983,10 +27253,8 @@
           <t>4878508132</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:50:21</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44387.45163194444</v>
       </c>
       <c r="I375" t="n">
         <v>1</v>
@@ -28054,10 +27322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:50:17</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44387.45158564814</v>
       </c>
       <c r="I376" t="n">
         <v>37</v>
@@ -28129,10 +27395,8 @@
           <t>4878525249</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:50:11</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44387.45151620371</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28211,10 +27475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:50:10</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44387.45150462963</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28290,10 +27552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:50:08</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44387.45148148148</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28369,10 +27629,8 @@
           <t>4878489548</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:49:57</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44387.45135416667</v>
       </c>
       <c r="I380" t="n">
         <v>2</v>
@@ -28448,10 +27706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:49:53</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44387.45130787037</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28519,10 +27775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:49:46</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44387.45122685185</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28594,10 +27848,8 @@
           <t>4878503969</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:49:43</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44387.45119212963</v>
       </c>
       <c r="I383" t="n">
         <v>16</v>
@@ -28673,10 +27925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:49:40</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44387.45115740741</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28740,10 +27990,8 @@
           <t>4878503969</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:49:32</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44387.45106481481</v>
       </c>
       <c r="I385" t="n">
         <v>13</v>
@@ -28815,10 +28063,8 @@
           <t>4878500604</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:49:31</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44387.45105324074</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28886,10 +28132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:49:27</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44387.45100694444</v>
       </c>
       <c r="I387" t="n">
         <v>3</v>
@@ -28957,10 +28201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:49:24</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44387.45097222222</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -29032,10 +28274,8 @@
           <t>4878489548</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:49:18</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44387.45090277777</v>
       </c>
       <c r="I389" t="n">
         <v>1</v>
@@ -29114,10 +28354,8 @@
           <t>4878513379</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:49:15</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44387.45086805556</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -29193,10 +28431,8 @@
           <t>4878513135</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:49:08</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44387.45078703704</v>
       </c>
       <c r="I391" t="n">
         <v>3</v>
@@ -29264,10 +28500,8 @@
           <t>4878473588</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:49:03</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44387.45072916667</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29343,10 +28577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:49:00</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44387.45069444444</v>
       </c>
       <c r="I393" t="n">
         <v>34</v>
@@ -29423,10 +28655,8 @@
           <t>4878508132</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:49:00</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44387.45069444444</v>
       </c>
       <c r="I394" t="n">
         <v>1</v>
@@ -29502,10 +28732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:48:53</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44387.45061342593</v>
       </c>
       <c r="I395" t="n">
         <v>3</v>
@@ -29581,10 +28809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:48:50</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44387.45057870371</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29660,10 +28886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:48:50</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44387.45057870371</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29727,10 +28951,8 @@
           <t>4878515238</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:48:46</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44387.45053240741</v>
       </c>
       <c r="I398" t="n">
         <v>2</v>
@@ -29806,10 +29028,8 @@
           <t>4878512038</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:48:36</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44387.45041666667</v>
       </c>
       <c r="I399" t="n">
         <v>16</v>
@@ -29885,10 +29105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:48:26</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44387.45030092593</v>
       </c>
       <c r="I400" t="n">
         <v>2</v>
@@ -29960,10 +29178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:48:26</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44387.45030092593</v>
       </c>
       <c r="I401" t="n">
         <v>3</v>
@@ -30039,10 +29255,8 @@
           <t>4878511702</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:48:26</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44387.45030092593</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -30106,10 +29320,8 @@
           <t>4878500604</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:48:22</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44387.45025462963</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -30178,10 +29390,8 @@
           <t>4878506900</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:48:20</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44387.45023148148</v>
       </c>
       <c r="I404" t="n">
         <v>1</v>
@@ -30249,10 +29459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:48:19</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44387.4502199074</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30324,10 +29532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:48:17</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44387.45019675926</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30391,10 +29597,8 @@
           <t>4878504073</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:48:09</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44387.45010416667</v>
       </c>
       <c r="I407" t="n">
         <v>5</v>
@@ -30470,10 +29674,8 @@
           <t>4878503969</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:48:05</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44387.45005787037</v>
       </c>
       <c r="I408" t="n">
         <v>9</v>
@@ -30541,10 +29743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:48:03</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44387.45003472222</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30616,10 +29816,8 @@
           <t>4878478225</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:48:03</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44387.45003472222</v>
       </c>
       <c r="I410" t="n">
         <v>2</v>
@@ -30695,10 +29893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:48:01</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44387.45001157407</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30758,10 +29954,8 @@
           <t>4878503773</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:47:59</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44387.44998842593</v>
       </c>
       <c r="I412" t="n">
         <v>1</v>
@@ -30829,10 +30023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:47:47</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44387.44984953704</v>
       </c>
       <c r="I413" t="n">
         <v>230</v>
@@ -30904,10 +30096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:47:30</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44387.44965277778</v>
       </c>
       <c r="I414" t="n">
         <v>1</v>
@@ -30988,10 +30178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:47:29</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44387.4496412037</v>
       </c>
       <c r="I415" t="n">
         <v>2</v>
@@ -31055,10 +30243,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:47:25</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44387.4495949074</v>
       </c>
       <c r="I416" t="n">
         <v>17</v>
@@ -31130,10 +30316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:47:22</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44387.44956018519</v>
       </c>
       <c r="I417" t="n">
         <v>3</v>
@@ -31209,10 +30393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:47:12</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44387.44944444444</v>
       </c>
       <c r="I418" t="n">
         <v>1</v>
@@ -31272,10 +30454,8 @@
           <t>4878498808</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:46:56</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44387.44925925926</v>
       </c>
       <c r="I419" t="n">
         <v>27</v>
@@ -31343,10 +30523,8 @@
           <t>4878494388</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:46:52</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44387.44921296297</v>
       </c>
       <c r="I420" t="n">
         <v>2</v>
@@ -31414,10 +30592,8 @@
           <t>4878489548</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:46:51</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44387.44920138889</v>
       </c>
       <c r="I421" t="n">
         <v>4</v>
@@ -31493,10 +30669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:46:50</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44387.44918981481</v>
       </c>
       <c r="I422" t="n">
         <v>1</v>
@@ -31564,10 +30738,8 @@
           <t>4878498637</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:46:50</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44387.44918981481</v>
       </c>
       <c r="I423" t="n">
         <v>2</v>
@@ -31639,10 +30811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:46:48</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44387.44916666667</v>
       </c>
       <c r="I424" t="n">
         <v>7</v>
@@ -31714,10 +30884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:46:47</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44387.4491550926</v>
       </c>
       <c r="I425" t="n">
         <v>25</v>
@@ -31785,10 +30953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:46:47</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44387.4491550926</v>
       </c>
       <c r="I426" t="n">
         <v>20</v>
@@ -31856,10 +31022,8 @@
           <t>4878501380</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:46:40</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44387.44907407407</v>
       </c>
       <c r="I427" t="n">
         <v>2</v>
@@ -31935,10 +31099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:46:39</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44387.4490625</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -32002,10 +31164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:46:36</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44387.44902777778</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -32069,10 +31229,8 @@
           <t>4878493786</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:46:32</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44387.44898148148</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -32140,10 +31298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:46:30</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44387.44895833333</v>
       </c>
       <c r="I431" t="n">
         <v>767</v>
@@ -32219,10 +31375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:46:27</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44387.44892361111</v>
       </c>
       <c r="I432" t="n">
         <v>34</v>
@@ -32301,10 +31455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:46:24</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44387.44888888889</v>
       </c>
       <c r="I433" t="n">
         <v>1</v>
@@ -32380,10 +31532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:46:23</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44387.44887731481</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32451,10 +31601,8 @@
           <t>4878497719</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:46:22</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44387.44886574074</v>
       </c>
       <c r="I435" t="n">
         <v>2</v>
@@ -32522,10 +31670,8 @@
           <t>4878493476</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:46:21</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44387.44885416667</v>
       </c>
       <c r="I436" t="n">
         <v>12</v>
@@ -32601,10 +31747,8 @@
           <t>4878473588</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:46:21</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44387.44885416667</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32668,10 +31812,8 @@
           <t>4878493449</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:46:20</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44387.4488425926</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32739,10 +31881,8 @@
           <t>4878500604</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:46:14</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44387.44877314815</v>
       </c>
       <c r="I439" t="n">
         <v>3</v>
@@ -32810,10 +31950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:46:10</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44387.44872685185</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32877,10 +32015,8 @@
           <t>4878473588</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:46:10</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44387.44872685185</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32940,10 +32076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:46:07</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44387.44869212963</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -33011,10 +32145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:45:56</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44387.44856481482</v>
       </c>
       <c r="I443" t="n">
         <v>5</v>
@@ -33086,10 +32218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:45:55</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44387.44855324074</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -33161,10 +32291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:45:42</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44387.44840277778</v>
       </c>
       <c r="I445" t="n">
         <v>1</v>
@@ -33236,10 +32364,8 @@
           <t>4878489548</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:45:40</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44387.44837962963</v>
       </c>
       <c r="I446" t="n">
         <v>6</v>
@@ -33318,10 +32444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:45:39</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44387.44836805556</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33397,10 +32521,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:45:38</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44387.44835648148</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33476,10 +32598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:45:36</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44387.44833333333</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33555,10 +32675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:45:31</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44387.44827546296</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33626,10 +32744,8 @@
           <t>4878473588</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:45:30</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44387.44826388889</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33697,10 +32813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:45:29</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44387.44825231482</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33760,10 +32874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:45:27</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44387.44822916666</v>
       </c>
       <c r="I453" t="n">
         <v>2</v>
@@ -33839,10 +32951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:45:25</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44387.44820601852</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33914,10 +33024,8 @@
           <t>4878495682</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:45:17</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44387.44811342593</v>
       </c>
       <c r="I455" t="n">
         <v>7</v>
@@ -33985,10 +33093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:45:15</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44387.44809027778</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -34056,10 +33162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:45:14</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44387.4480787037</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -34135,10 +33239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:45:10</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44387.44803240741</v>
       </c>
       <c r="I458" t="n">
         <v>363</v>
@@ -34210,10 +33312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:45:09</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44387.44802083333</v>
       </c>
       <c r="I459" t="n">
         <v>4</v>
@@ -34277,10 +33377,8 @@
           <t>4878478225</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:44:59</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44387.44790509259</v>
       </c>
       <c r="I460" t="n">
         <v>2</v>
@@ -34344,10 +33442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:44:58</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44387.44789351852</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34411,10 +33507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:44:50</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44387.44780092593</v>
       </c>
       <c r="I462" t="n">
         <v>227</v>
@@ -34490,10 +33584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:44:49</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44387.44778935185</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34569,10 +33661,8 @@
           <t>4878478225</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:44:41</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44387.44769675926</v>
       </c>
       <c r="I464" t="n">
         <v>8</v>
@@ -34648,10 +33738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:44:40</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44387.44768518519</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34719,10 +33807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:44:36</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44387.44763888889</v>
       </c>
       <c r="I466" t="n">
         <v>38</v>
@@ -34790,10 +33876,8 @@
           <t>4878473588</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:44:32</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44387.44759259259</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34869,10 +33953,8 @@
           <t>4878478225</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:44:32</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44387.44759259259</v>
       </c>
       <c r="I468" t="n">
         <v>6</v>
@@ -34948,10 +34030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:44:31</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44387.44758101852</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -35011,10 +34091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:44:30</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44387.44756944444</v>
       </c>
       <c r="I470" t="n">
         <v>2</v>
@@ -35078,10 +34156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:44:24</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44387.4475</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -35153,10 +34229,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:44:17</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44387.44741898148</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -35224,10 +34298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:44:14</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44387.44738425926</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -35295,10 +34367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:44:07</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44387.44730324074</v>
       </c>
       <c r="I474" t="n">
         <v>9</v>
@@ -35374,10 +34444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:44:01</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44387.44723379629</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35441,10 +34509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:43:57</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44387.4471875</v>
       </c>
       <c r="I476" t="n">
         <v>2</v>
@@ -35520,10 +34586,8 @@
           <t>4878478225</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:43:57</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44387.4471875</v>
       </c>
       <c r="I477" t="n">
         <v>31</v>
@@ -35599,10 +34663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:43:55</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44387.44716435186</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35675,10 +34737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:43:47</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44387.44707175926</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35746,10 +34806,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:43:47</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44387.44707175926</v>
       </c>
       <c r="I480" t="n">
         <v>2</v>
@@ -35825,10 +34883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:43:44</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44387.44703703704</v>
       </c>
       <c r="I481" t="n">
         <v>8</v>
@@ -35892,10 +34948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:43:43</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44387.44702546296</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35967,10 +35021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:43:41</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44387.44700231482</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -36042,10 +35094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:43:35</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44387.44693287037</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -36109,10 +35159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:43:30</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44387.446875</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -36189,10 +35237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:43:28</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44387.44685185186</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -36264,10 +35310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:43:27</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44387.44684027778</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -36343,10 +35387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:43:25</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44387.44681712963</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36422,10 +35464,8 @@
           <t>4878478225</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:43:24</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44387.44680555556</v>
       </c>
       <c r="I489" t="n">
         <v>67</v>
@@ -36501,10 +35541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:43:19</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44387.44674768519</v>
       </c>
       <c r="I490" t="n">
         <v>2</v>
@@ -36568,10 +35606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:43:19</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44387.44674768519</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36639,10 +35675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:43:13</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44387.44667824074</v>
       </c>
       <c r="I492" t="n">
         <v>3</v>
@@ -36710,10 +35744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:43:10</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44387.44664351852</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36781,10 +35813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:43:05</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44387.44658564815</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36860,10 +35890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:42:59</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44387.4465162037</v>
       </c>
       <c r="I495" t="n">
         <v>10</v>
@@ -36927,10 +35955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:42:58</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44387.44650462963</v>
       </c>
       <c r="I496" t="n">
         <v>4</v>
@@ -36998,10 +36024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:42:57</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44387.44649305556</v>
       </c>
       <c r="I497" t="n">
         <v>5</v>
@@ -37077,10 +36101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:42:56</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44387.44648148148</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -37148,10 +36170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:42:55</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44387.44646990741</v>
       </c>
       <c r="I499" t="n">
         <v>4</v>
@@ -37227,10 +36247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:42:52</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44387.44643518519</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -37306,10 +36324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:42:52</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44387.44643518519</v>
       </c>
       <c r="I501" t="n">
         <v>1</v>
@@ -37385,10 +36401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:42:49</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44387.44640046296</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -37460,10 +36474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:42:47</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44387.44637731482</v>
       </c>
       <c r="I503" t="n">
         <v>1</v>
@@ -37535,10 +36547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:42:41</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44387.44630787037</v>
       </c>
       <c r="I504" t="n">
         <v>1</v>
@@ -37614,10 +36624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:42:35</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44387.44623842592</v>
       </c>
       <c r="I505" t="n">
         <v>1</v>
@@ -37693,10 +36701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:42:35</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44387.44623842592</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37756,10 +36762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:42:28</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44387.44615740741</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37835,10 +36839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:42:27</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44387.44614583333</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37910,10 +36912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:42:26</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44387.44613425926</v>
       </c>
       <c r="I509" t="n">
         <v>7</v>
@@ -37981,10 +36981,8 @@
           <t>4878476470</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:42:24</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44387.44611111111</v>
       </c>
       <c r="I510" t="n">
         <v>8</v>
@@ -38060,10 +37058,8 @@
           <t>4878473588</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:42:23</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44387.44609953704</v>
       </c>
       <c r="I511" t="n">
         <v>37</v>
@@ -38131,10 +37127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:42:21</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44387.44607638889</v>
       </c>
       <c r="I512" t="n">
         <v>1</v>
@@ -38210,10 +37204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:42:20</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44387.44606481482</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -38285,10 +37277,8 @@
           <t>4878473435</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:42:18</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44387.44604166667</v>
       </c>
       <c r="I514" t="n">
         <v>5</v>
@@ -38360,10 +37350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:42:17</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44387.44603009259</v>
       </c>
       <c r="I515" t="n">
         <v>3</v>
@@ -38439,10 +37427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:42:16</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44387.44601851852</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -38506,10 +37492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:42:15</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44387.44600694445</v>
       </c>
       <c r="I517" t="n">
         <v>4</v>
@@ -38585,10 +37569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:42:15</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44387.44600694445</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38656,10 +37638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:42:12</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44387.44597222222</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38723,10 +37703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:42:09</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44387.4459375</v>
       </c>
       <c r="I520" t="n">
         <v>25</v>
@@ -38802,10 +37780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:42:07</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44387.44591435185</v>
       </c>
       <c r="I521" t="n">
         <v>1</v>
@@ -38869,10 +37845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:42:07</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44387.44591435185</v>
       </c>
       <c r="I522" t="n">
         <v>1</v>
@@ -38944,10 +37918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:41:59</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44387.44582175926</v>
       </c>
       <c r="I523" t="n">
         <v>1</v>
@@ -39011,10 +37983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:41:58</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44387.44581018519</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -39086,10 +38056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:41:57</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44387.44579861111</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -39165,10 +38133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:41:54</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44387.44576388889</v>
       </c>
       <c r="I526" t="n">
         <v>2</v>
@@ -39236,10 +38202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:41:52</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44387.44574074074</v>
       </c>
       <c r="I527" t="n">
         <v>1</v>
@@ -39299,10 +38263,8 @@
           <t>4878472642</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:41:52</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44387.44574074074</v>
       </c>
       <c r="I528" t="n">
         <v>5</v>
@@ -39382,10 +38344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:41:50</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44387.44571759259</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -39461,10 +38421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:41:50</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44387.44571759259</v>
       </c>
       <c r="I530" t="n">
         <v>1</v>
@@ -39536,10 +38494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:41:50</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44387.44571759259</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39607,10 +38563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:41:49</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44387.44570601852</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39686,10 +38640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:41:49</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44387.44570601852</v>
       </c>
       <c r="I533" t="n">
         <v>11</v>
@@ -39765,10 +38717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:41:48</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44387.44569444445</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39836,10 +38786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:41:46</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44387.44567129629</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39911,10 +38859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:41:43</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44387.44563657408</v>
       </c>
       <c r="I536" t="n">
         <v>1</v>
@@ -39982,10 +38928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:41:39</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44387.44559027778</v>
       </c>
       <c r="I537" t="n">
         <v>5</v>
@@ -40057,10 +39001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:41:36</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44387.44555555555</v>
       </c>
       <c r="I538" t="n">
         <v>195</v>
@@ -40136,10 +39078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:41:31</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44387.44549768518</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -40207,10 +39147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:41:29</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44387.44547453704</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -40286,10 +39224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:41:26</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44387.44543981482</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -40357,10 +39293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:41:26</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44387.44543981482</v>
       </c>
       <c r="I542" t="n">
         <v>1</v>
@@ -40424,10 +39358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:41:26</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44387.44543981482</v>
       </c>
       <c r="I543" t="n">
         <v>3</v>
@@ -40491,10 +39423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:41:25</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44387.44542824074</v>
       </c>
       <c r="I544" t="n">
         <v>1208</v>
@@ -40558,10 +39488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:41:20</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44387.44537037037</v>
       </c>
       <c r="I545" t="n">
         <v>3</v>
